--- a/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.22</t>
+    <t>urn:oid:1.2.250.1.213.3.4.22</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -124,9 +130,6 @@
   </si>
   <si>
     <t>Prévisionnel 7 jours</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -266,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -372,20 +375,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -407,66 +418,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,64 +72,61 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sert à indiquer le moment où une capacité sera effective. Il est ainsi possible de décrire la situation immédiate ou de fournir une information prospective de capacités, prenant notamment en compte les entrées et sorties déjà identifiés de patients</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Courant</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Prévisionnel 1 heure</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Prévisionnel 24 heures</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Prévisionnel 48 heures</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Prévisionnel 7 jours</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Sert à indiquer le moment où une capacité sera effective. Il est ainsi possible de décrire la situation immédiate ou de fournir une information prospective de capacités, prenant notamment en compte les entrées et sorties déjà identifiés de patients</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Courant</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Prévisionnel 1 heure</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Prévisionnel 24 heures</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Prévisionnel 48 heures</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Prévisionnel 7 jours</t>
   </si>
   <si>
     <t>System URI</t>
@@ -269,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -375,28 +372,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -418,66 +407,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,61 +75,58 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sert à indiquer le moment où une capacité sera effective. Il est ainsi possible de décrire la situation immédiate ou de fournir une information prospective de capacités, prenant notamment en compte les entrées et sorties déjà identifiés de patients</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Courant</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Prévisionnel 1 heure</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Prévisionnel 24 heures</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Prévisionnel 48 heures</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Prévisionnel 7 jours</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Sert à indiquer le moment où une capacité sera effective. Il est ainsi possible de décrire la situation immédiate ou de fournir une information prospective de capacités, prenant notamment en compte les entrées et sorties déjà identifiés de patients</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Courant</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Prévisionnel 1 heure</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Prévisionnel 24 heures</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Prévisionnel 48 heures</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Prévisionnel 7 jours</t>
   </si>
   <si>
     <t>System URI</t>
@@ -269,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -375,28 +372,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -418,66 +407,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J189-TemporaliteCapacite-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
